--- a/biology/Histoire de la zoologie et de la botanique/Edward_Tuckerman/Edward_Tuckerman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_Tuckerman/Edward_Tuckerman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Tuckerman est un botaniste américain, né le 7 décembre 1817 à Boston et mort le 15 mars 1886 à Amherst (Massachusetts).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils aîné d’un négociant de Boston. Il obtient son Bachelor of Arts à l’Union College en 1837. Il poursuit des études de droit à l’Harvard College en 1839 et obtient un Master of Arts à l’Union College en 1843. Souhaitant obtenir un titre universitaire d’Harvard, il y entre en 1846 et obtient un Bachelor of Arts. Il complète ses études à l’Harvard Divinity School en 1852.
 Il se marie en 1854 et devient maître-assistant en histoire au Amherst College où il obtient un poste rémunéré de professeur de botanique en 1858, fonction qu’il occupe jusqu’à sa mort. Tuckerman devient membre de la National Academy of Sciences en 1868. Il meurt des suites de complication d’une urémie.
